--- a/AIC9parameters_FinalConfirmation.xlsx
+++ b/AIC9parameters_FinalConfirmation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D1A8AF-F282-4B20-97EA-444E4D05419E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417F0DDE-8548-4035-95FD-CF13CCE746C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{7EB12B98-0108-4967-A1A0-84ECDC3917D8}"/>
+    <workbookView xWindow="1800" yWindow="1365" windowWidth="27000" windowHeight="14235" xr2:uid="{7EB12B98-0108-4967-A1A0-84ECDC3917D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
